--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H2">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I2">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J2">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>21.15439686897445</v>
+        <v>12.14401924573333</v>
       </c>
       <c r="R2">
-        <v>190.38957182077</v>
+        <v>109.2961732116</v>
       </c>
       <c r="S2">
-        <v>0.04459183138711985</v>
+        <v>0.02950818625830621</v>
       </c>
       <c r="T2">
-        <v>0.05452734246319777</v>
+        <v>0.03594439989630123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H3">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I3">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J3">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>47.69462727042612</v>
+        <v>38.81858495936444</v>
       </c>
       <c r="R3">
-        <v>429.2516454338351</v>
+        <v>349.36726463428</v>
       </c>
       <c r="S3">
-        <v>0.1005365830322288</v>
+        <v>0.09432347002144754</v>
       </c>
       <c r="T3">
-        <v>0.1229371506518009</v>
+        <v>0.1148969474565158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H4">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I4">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J4">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>9.55094657003278</v>
+        <v>9.65777636975111</v>
       </c>
       <c r="R4">
-        <v>85.95851913029502</v>
+        <v>86.91998732775998</v>
       </c>
       <c r="S4">
-        <v>0.02013265618850704</v>
+        <v>0.02346698059292108</v>
       </c>
       <c r="T4">
-        <v>0.02461841562761269</v>
+        <v>0.02858550937041269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H5">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I5">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J5">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>13.15978889269917</v>
+        <v>15.91335650231333</v>
       </c>
       <c r="R5">
-        <v>78.95873335619501</v>
+        <v>95.48013901387998</v>
       </c>
       <c r="S5">
-        <v>0.02773981650377266</v>
+        <v>0.03866712314624088</v>
       </c>
       <c r="T5">
-        <v>0.02261368547131674</v>
+        <v>0.03140069956726615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H6">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I6">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J6">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>12.30355911013056</v>
+        <v>6.138334883871112</v>
       </c>
       <c r="R6">
-        <v>110.732031991175</v>
+        <v>55.24501395484</v>
       </c>
       <c r="S6">
-        <v>0.0259349503887322</v>
+        <v>0.01491525378904234</v>
       </c>
       <c r="T6">
-        <v>0.03171351966541836</v>
+        <v>0.01816851235976079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>7.015753</v>
       </c>
       <c r="I7">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J7">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>30.64249702362244</v>
+        <v>21.61303270776333</v>
       </c>
       <c r="R7">
-        <v>275.782473212602</v>
+        <v>194.51729436987</v>
       </c>
       <c r="S7">
-        <v>0.06459201219589941</v>
+        <v>0.05251650066114768</v>
       </c>
       <c r="T7">
-        <v>0.07898376585650119</v>
+        <v>0.06397120054734987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>7.015753</v>
       </c>
       <c r="I8">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J8">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
         <v>69.08646383203011</v>
@@ -948,10 +948,10 @@
         <v>621.778174488271</v>
       </c>
       <c r="S8">
-        <v>0.1456289189151244</v>
+        <v>0.167869977923456</v>
       </c>
       <c r="T8">
-        <v>0.1780765150749987</v>
+        <v>0.2044851406400984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>7.015753</v>
       </c>
       <c r="I9">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J9">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>13.83470555354078</v>
+        <v>17.18820040877578</v>
       </c>
       <c r="R9">
-        <v>124.512349981867</v>
+        <v>154.693803678982</v>
       </c>
       <c r="S9">
-        <v>0.02916248859066851</v>
+        <v>0.04176480692629395</v>
       </c>
       <c r="T9">
-        <v>0.03566018602505274</v>
+        <v>0.05087438816501127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>7.015753</v>
       </c>
       <c r="I10">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J10">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>19.06217390520117</v>
+        <v>28.32142206095683</v>
       </c>
       <c r="R10">
-        <v>114.373043431207</v>
+        <v>169.928532365741</v>
       </c>
       <c r="S10">
-        <v>0.04018158730393029</v>
+        <v>0.06881690323147631</v>
       </c>
       <c r="T10">
-        <v>0.03275630092599047</v>
+        <v>0.05588465672371317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>7.015753</v>
       </c>
       <c r="I11">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J11">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>17.82191077095055</v>
+        <v>10.92455717763478</v>
       </c>
       <c r="R11">
-        <v>160.397196938555</v>
+        <v>98.32101459871301</v>
       </c>
       <c r="S11">
-        <v>0.03756720860522691</v>
+        <v>0.02654507222560785</v>
       </c>
       <c r="T11">
-        <v>0.0459375626719669</v>
+        <v>0.03233498267230391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H12">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I12">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J12">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>42.364603830888</v>
+        <v>3.249893878066667</v>
       </c>
       <c r="R12">
-        <v>254.187622985328</v>
+        <v>29.2490449026</v>
       </c>
       <c r="S12">
-        <v>0.08930130613081726</v>
+        <v>0.007896765636913263</v>
       </c>
       <c r="T12">
-        <v>0.07279902694184821</v>
+        <v>0.009619178198750907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H13">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I13">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J13">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>95.515083776124</v>
+        <v>10.38834664717555</v>
       </c>
       <c r="R13">
-        <v>573.090502656744</v>
+        <v>93.49511982458</v>
       </c>
       <c r="S13">
-        <v>0.2013384043540463</v>
+        <v>0.02524215925369247</v>
       </c>
       <c r="T13">
-        <v>0.1641324249113175</v>
+        <v>0.03074788326596808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H14">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I14">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J14">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>19.127090701548</v>
+        <v>2.584543688928889</v>
       </c>
       <c r="R14">
-        <v>114.762544209288</v>
+        <v>23.26089320036</v>
       </c>
       <c r="S14">
-        <v>0.04031842688649175</v>
+        <v>0.006280062228363021</v>
       </c>
       <c r="T14">
-        <v>0.03286785347644264</v>
+        <v>0.007649845576205004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H15">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I15">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J15">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>26.354296290762</v>
+        <v>4.258616429196666</v>
       </c>
       <c r="R15">
-        <v>105.417185163048</v>
+        <v>25.55169857518</v>
       </c>
       <c r="S15">
-        <v>0.05555281692986549</v>
+        <v>0.01034781354118562</v>
       </c>
       <c r="T15">
-        <v>0.03019135397973921</v>
+        <v>0.008403226248716847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H16">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I16">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J16">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N16">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O16">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P16">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q16">
-        <v>24.63957779742</v>
+        <v>1.642696421748889</v>
       </c>
       <c r="R16">
-        <v>147.83746678452</v>
+        <v>14.78426779574</v>
       </c>
       <c r="S16">
-        <v>0.05193832305395525</v>
+        <v>0.003991511459095374</v>
       </c>
       <c r="T16">
-        <v>0.04234047118841062</v>
+        <v>0.004862124795488137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,19 +1467,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H17">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I17">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J17">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N17">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O17">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P17">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q17">
-        <v>2.462230536351111</v>
+        <v>22.26669285216</v>
       </c>
       <c r="R17">
-        <v>22.16007482716</v>
+        <v>133.60015711296</v>
       </c>
       <c r="S17">
-        <v>0.005190191410004932</v>
+        <v>0.05410479897492587</v>
       </c>
       <c r="T17">
-        <v>0.006346618554550592</v>
+        <v>0.04393728830907719</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H18">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I18">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J18">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>88.626007</v>
       </c>
       <c r="O18">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P18">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q18">
-        <v>5.551336131797778</v>
+        <v>71.175900725728</v>
       </c>
       <c r="R18">
-        <v>49.96202518618</v>
+        <v>427.055404354368</v>
       </c>
       <c r="S18">
-        <v>0.01170178692853243</v>
+        <v>0.1729470032300386</v>
       </c>
       <c r="T18">
-        <v>0.01430906341890596</v>
+        <v>0.1404463649634976</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H19">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I19">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J19">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N19">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O19">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P19">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q19">
-        <v>1.111666403984445</v>
+        <v>17.708036829376</v>
       </c>
       <c r="R19">
-        <v>10.00499763586</v>
+        <v>106.248220976256</v>
       </c>
       <c r="S19">
-        <v>0.002343306743852508</v>
+        <v>0.0430279332119602</v>
       </c>
       <c r="T19">
-        <v>0.002865419188754683</v>
+        <v>0.03494201517602447</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H20">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I20">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J20">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N20">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O20">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P20">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q20">
-        <v>1.531711552176667</v>
+        <v>29.17796936203199</v>
       </c>
       <c r="R20">
-        <v>9.19026931306</v>
+        <v>116.711877448128</v>
       </c>
       <c r="S20">
-        <v>0.003228729407480232</v>
+        <v>0.07089818758945818</v>
       </c>
       <c r="T20">
-        <v>0.002632081985214967</v>
+        <v>0.03838321390742314</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H21">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I21">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J21">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N21">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O21">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P21">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q21">
-        <v>1.432052122988889</v>
+        <v>11.254957252384</v>
       </c>
       <c r="R21">
-        <v>12.8884691069</v>
+        <v>67.529743514304</v>
       </c>
       <c r="S21">
-        <v>0.00301865504374379</v>
+        <v>0.02734789596527573</v>
       </c>
       <c r="T21">
-        <v>0.003691241920959108</v>
+        <v>0.02220861018686771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.383087</v>
+      </c>
+      <c r="I22">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J22">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.24193</v>
+      </c>
+      <c r="N22">
+        <v>27.72579</v>
+      </c>
+      <c r="O22">
+        <v>0.1468938537243544</v>
+      </c>
+      <c r="P22">
+        <v>0.1569651396557324</v>
+      </c>
+      <c r="Q22">
+        <v>1.180154412636667</v>
+      </c>
+      <c r="R22">
+        <v>10.62138971373</v>
+      </c>
+      <c r="S22">
+        <v>0.002867602193061398</v>
+      </c>
+      <c r="T22">
+        <v>0.003493072704253217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.383087</v>
+      </c>
+      <c r="I23">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J23">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N23">
+        <v>88.626007</v>
+      </c>
+      <c r="O23">
+        <v>0.469548954544906</v>
+      </c>
+      <c r="P23">
+        <v>0.5017420086455576</v>
+      </c>
+      <c r="Q23">
+        <v>3.772385682623223</v>
+      </c>
+      <c r="R23">
+        <v>33.951471143609</v>
+      </c>
+      <c r="S23">
+        <v>0.009166344116271341</v>
+      </c>
+      <c r="T23">
+        <v>0.01116567231947781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.383087</v>
+      </c>
+      <c r="I24">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J24">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.349831333333333</v>
+      </c>
+      <c r="N24">
+        <v>22.049494</v>
+      </c>
+      <c r="O24">
+        <v>0.1168203014713749</v>
+      </c>
+      <c r="P24">
+        <v>0.1248296948454213</v>
+      </c>
+      <c r="Q24">
+        <v>0.9385416119975557</v>
+      </c>
+      <c r="R24">
+        <v>8.446874507978</v>
+      </c>
+      <c r="S24">
+        <v>0.002280518511836602</v>
+      </c>
+      <c r="T24">
+        <v>0.002777936557767879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.383087</v>
+      </c>
+      <c r="I25">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J25">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.1104985</v>
+      </c>
+      <c r="N25">
+        <v>24.220997</v>
+      </c>
+      <c r="O25">
+        <v>0.1924876941491673</v>
+      </c>
+      <c r="P25">
+        <v>0.1371233128688515</v>
+      </c>
+      <c r="Q25">
+        <v>1.546458179623167</v>
+      </c>
+      <c r="R25">
+        <v>9.278749077738999</v>
+      </c>
+      <c r="S25">
+        <v>0.003757666640806278</v>
+      </c>
+      <c r="T25">
+        <v>0.003051516421732223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.383087</v>
+      </c>
+      <c r="I26">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J26">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.671440333333334</v>
+      </c>
+      <c r="N26">
+        <v>14.014321</v>
+      </c>
+      <c r="O26">
+        <v>0.07424919611019735</v>
+      </c>
+      <c r="P26">
+        <v>0.079339843984437</v>
+      </c>
+      <c r="Q26">
+        <v>0.5965226876585557</v>
+      </c>
+      <c r="R26">
+        <v>5.368704188927</v>
+      </c>
+      <c r="S26">
+        <v>0.001449462671176057</v>
+      </c>
+      <c r="T26">
+        <v>0.00176561397001646</v>
       </c>
     </row>
   </sheetData>
